--- a/natmiOut/OldD2/LR-pairs_lrc2p/Fgf9-Fgfr3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Fgf9-Fgfr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,16 +79,22 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>Fgf9</t>
   </si>
   <si>
     <t>Fgfr3</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Neutro</t>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.977168805985946</v>
+        <v>1.3096565</v>
       </c>
       <c r="H2">
-        <v>0.977168805985946</v>
+        <v>2.619313</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.498822476538879</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.3988701096662744</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.7698411407019</v>
+        <v>6.834606</v>
       </c>
       <c r="N2">
-        <v>6.7698411407019</v>
+        <v>13.669212</v>
       </c>
       <c r="O2">
-        <v>0.6074051537697821</v>
+        <v>0.5800266923841273</v>
       </c>
       <c r="P2">
-        <v>0.6074051537697821</v>
+        <v>0.4933860619101292</v>
       </c>
       <c r="Q2">
-        <v>6.615277584174211</v>
+        <v>8.950986172839</v>
       </c>
       <c r="R2">
-        <v>6.615277584174211</v>
+        <v>35.803944691356</v>
       </c>
       <c r="S2">
-        <v>0.6074051537697821</v>
+        <v>0.2893303511537049</v>
       </c>
       <c r="T2">
-        <v>0.6074051537697821</v>
+        <v>0.1967969526219045</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.977168805985946</v>
+        <v>1.3096565</v>
       </c>
       <c r="H3">
-        <v>0.977168805985946</v>
+        <v>2.619313</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.498822476538879</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.3988701096662744</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.829257075142636</v>
+        <v>0.856297</v>
       </c>
       <c r="N3">
-        <v>0.829257075142636</v>
+        <v>2.568891</v>
       </c>
       <c r="O3">
-        <v>0.07440278298605235</v>
+        <v>0.07267062894458745</v>
       </c>
       <c r="P3">
-        <v>0.07440278298605235</v>
+        <v>0.09272334162103665</v>
       </c>
       <c r="Q3">
-        <v>0.8103241459725276</v>
+        <v>1.1214549319805</v>
       </c>
       <c r="R3">
-        <v>0.8103241459725276</v>
+        <v>6.728729591883</v>
       </c>
       <c r="S3">
-        <v>0.07440278298605235</v>
+        <v>0.03624974310177705</v>
       </c>
       <c r="T3">
-        <v>0.07440278298605235</v>
+        <v>0.03698456944100632</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.977168805985946</v>
+        <v>1.3096565</v>
       </c>
       <c r="H4">
-        <v>0.977168805985946</v>
+        <v>2.619313</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.498822476538879</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.3988701096662744</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>2.73648285676271</v>
+        <v>0.2788403333333334</v>
       </c>
       <c r="N4">
-        <v>2.73648285676271</v>
+        <v>0.8365210000000001</v>
       </c>
       <c r="O4">
-        <v>0.2455233078376184</v>
+        <v>0.02366410532613305</v>
       </c>
       <c r="P4">
-        <v>0.2455233078376184</v>
+        <v>0.03019397181747735</v>
       </c>
       <c r="Q4">
-        <v>2.674005685743828</v>
+        <v>0.3651850550121667</v>
       </c>
       <c r="R4">
-        <v>2.674005685743828</v>
+        <v>2.191110330073</v>
       </c>
       <c r="S4">
-        <v>0.2455233078376184</v>
+        <v>0.01180418762385856</v>
       </c>
       <c r="T4">
-        <v>0.2455233078376184</v>
+        <v>0.01204347285009759</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +714,929 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1.3096565</v>
+      </c>
+      <c r="H5">
+        <v>2.619313</v>
+      </c>
+      <c r="I5">
+        <v>0.498822476538879</v>
+      </c>
+      <c r="J5">
+        <v>0.3988701096662744</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.05413033333333334</v>
+      </c>
+      <c r="N5">
+        <v>0.162391</v>
+      </c>
+      <c r="O5">
+        <v>0.004593832943842499</v>
+      </c>
+      <c r="P5">
+        <v>0.005861453899438226</v>
+      </c>
+      <c r="Q5">
+        <v>0.07089214289716667</v>
+      </c>
+      <c r="R5">
+        <v>0.425352857383</v>
+      </c>
+      <c r="S5">
+        <v>0.002291507125853404</v>
+      </c>
+      <c r="T5">
+        <v>0.002337958759672737</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1.3096565</v>
+      </c>
+      <c r="H6">
+        <v>2.619313</v>
+      </c>
+      <c r="I6">
+        <v>0.498822476538879</v>
+      </c>
+      <c r="J6">
+        <v>0.3988701096662744</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>2.949111</v>
+      </c>
+      <c r="N6">
+        <v>8.847333000000001</v>
+      </c>
+      <c r="O6">
+        <v>0.2502796940750712</v>
+      </c>
+      <c r="P6">
+        <v>0.319341801654516</v>
+      </c>
+      <c r="Q6">
+        <v>3.8623223903715</v>
+      </c>
+      <c r="R6">
+        <v>23.173934342229</v>
+      </c>
+      <c r="S6">
+        <v>0.12484513682592</v>
+      </c>
+      <c r="T6">
+        <v>0.1273758994469624</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.3096565</v>
+      </c>
+      <c r="H7">
+        <v>2.619313</v>
+      </c>
+      <c r="I7">
+        <v>0.498822476538879</v>
+      </c>
+      <c r="J7">
+        <v>0.3988701096662744</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.8102765000000001</v>
+      </c>
+      <c r="N7">
+        <v>1.620553</v>
+      </c>
+      <c r="O7">
+        <v>0.06876504632623846</v>
+      </c>
+      <c r="P7">
+        <v>0.05849336909740267</v>
+      </c>
+      <c r="Q7">
+        <v>1.06118388502225</v>
+      </c>
+      <c r="R7">
+        <v>4.244735540089001</v>
+      </c>
+      <c r="S7">
+        <v>0.03430155070776501</v>
+      </c>
+      <c r="T7">
+        <v>0.02333125654663087</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.008236666666666666</v>
+      </c>
+      <c r="H8">
+        <v>0.02471</v>
+      </c>
+      <c r="I8">
+        <v>0.003137184800053983</v>
+      </c>
+      <c r="J8">
+        <v>0.003762849422674434</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>6.834606</v>
+      </c>
+      <c r="N8">
+        <v>13.669212</v>
+      </c>
+      <c r="O8">
+        <v>0.5800266923841273</v>
+      </c>
+      <c r="P8">
+        <v>0.4933860619101292</v>
+      </c>
+      <c r="Q8">
+        <v>0.05629437142</v>
+      </c>
+      <c r="R8">
+        <v>0.33776622852</v>
+      </c>
+      <c r="S8">
+        <v>0.001819650922973072</v>
+      </c>
+      <c r="T8">
+        <v>0.001856537458214142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.008236666666666666</v>
+      </c>
+      <c r="H9">
+        <v>0.02471</v>
+      </c>
+      <c r="I9">
+        <v>0.003137184800053983</v>
+      </c>
+      <c r="J9">
+        <v>0.003762849422674434</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.856297</v>
+      </c>
+      <c r="N9">
+        <v>2.568891</v>
+      </c>
+      <c r="O9">
+        <v>0.07267062894458745</v>
+      </c>
+      <c r="P9">
+        <v>0.09272334162103665</v>
+      </c>
+      <c r="Q9">
+        <v>0.007053032956666666</v>
+      </c>
+      <c r="R9">
+        <v>0.06347729661</v>
+      </c>
+      <c r="S9">
+        <v>0.0002279811925353228</v>
+      </c>
+      <c r="T9">
+        <v>0.0003489039724871621</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.008236666666666666</v>
+      </c>
+      <c r="H10">
+        <v>0.02471</v>
+      </c>
+      <c r="I10">
+        <v>0.003137184800053983</v>
+      </c>
+      <c r="J10">
+        <v>0.003762849422674434</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.2788403333333334</v>
+      </c>
+      <c r="N10">
+        <v>0.8365210000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.02366410532613305</v>
+      </c>
+      <c r="P10">
+        <v>0.03019397181747735</v>
+      </c>
+      <c r="Q10">
+        <v>0.002296714878888889</v>
+      </c>
+      <c r="R10">
+        <v>0.02067043391</v>
+      </c>
+      <c r="S10">
+        <v>7.42386715360211E-05</v>
+      </c>
+      <c r="T10">
+        <v>0.0001136153694216428</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.008236666666666666</v>
+      </c>
+      <c r="H11">
+        <v>0.02471</v>
+      </c>
+      <c r="I11">
+        <v>0.003137184800053983</v>
+      </c>
+      <c r="J11">
+        <v>0.003762849422674434</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.05413033333333334</v>
+      </c>
+      <c r="N11">
+        <v>0.162391</v>
+      </c>
+      <c r="O11">
+        <v>0.004593832943842499</v>
+      </c>
+      <c r="P11">
+        <v>0.005861453899438226</v>
+      </c>
+      <c r="Q11">
+        <v>0.0004458535122222222</v>
+      </c>
+      <c r="R11">
+        <v>0.00401268161</v>
+      </c>
+      <c r="S11">
+        <v>1.441170288540993E-05</v>
+      </c>
+      <c r="T11">
+        <v>2.205576842153394E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.008236666666666666</v>
+      </c>
+      <c r="H12">
+        <v>0.02471</v>
+      </c>
+      <c r="I12">
+        <v>0.003137184800053983</v>
+      </c>
+      <c r="J12">
+        <v>0.003762849422674434</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.949111</v>
+      </c>
+      <c r="N12">
+        <v>8.847333000000001</v>
+      </c>
+      <c r="O12">
+        <v>0.2502796940750712</v>
+      </c>
+      <c r="P12">
+        <v>0.319341801654516</v>
+      </c>
+      <c r="Q12">
+        <v>0.02429084427</v>
+      </c>
+      <c r="R12">
+        <v>0.21861759843</v>
+      </c>
+      <c r="S12">
+        <v>0.0007851736520144744</v>
+      </c>
+      <c r="T12">
+        <v>0.001201635113991509</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.008236666666666666</v>
+      </c>
+      <c r="H13">
+        <v>0.02471</v>
+      </c>
+      <c r="I13">
+        <v>0.003137184800053983</v>
+      </c>
+      <c r="J13">
+        <v>0.003762849422674434</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.8102765000000001</v>
+      </c>
+      <c r="N13">
+        <v>1.620553</v>
+      </c>
+      <c r="O13">
+        <v>0.06876504632623846</v>
+      </c>
+      <c r="P13">
+        <v>0.05849336909740267</v>
+      </c>
+      <c r="Q13">
+        <v>0.006673977438333333</v>
+      </c>
+      <c r="R13">
+        <v>0.04004386463</v>
+      </c>
+      <c r="S13">
+        <v>0.0002157286581096833</v>
+      </c>
+      <c r="T13">
+        <v>0.0002201017401384442</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>1.307603</v>
+      </c>
+      <c r="H14">
+        <v>3.922809</v>
+      </c>
+      <c r="I14">
+        <v>0.4980403386610671</v>
+      </c>
+      <c r="J14">
+        <v>0.5973670409110512</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>6.834606</v>
+      </c>
+      <c r="N14">
+        <v>13.669212</v>
+      </c>
+      <c r="O14">
+        <v>0.5800266923841273</v>
+      </c>
+      <c r="P14">
+        <v>0.4933860619101292</v>
+      </c>
+      <c r="Q14">
+        <v>8.936951309418001</v>
+      </c>
+      <c r="R14">
+        <v>53.621707856508</v>
+      </c>
+      <c r="S14">
+        <v>0.2888766903074493</v>
+      </c>
+      <c r="T14">
+        <v>0.2947325718300106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>1.307603</v>
+      </c>
+      <c r="H15">
+        <v>3.922809</v>
+      </c>
+      <c r="I15">
+        <v>0.4980403386610671</v>
+      </c>
+      <c r="J15">
+        <v>0.5973670409110512</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.856297</v>
+      </c>
+      <c r="N15">
+        <v>2.568891</v>
+      </c>
+      <c r="O15">
+        <v>0.07267062894458745</v>
+      </c>
+      <c r="P15">
+        <v>0.09272334162103665</v>
+      </c>
+      <c r="Q15">
+        <v>1.119696526091</v>
+      </c>
+      <c r="R15">
+        <v>10.077268734819</v>
+      </c>
+      <c r="S15">
+        <v>0.03619290465027507</v>
+      </c>
+      <c r="T15">
+        <v>0.05538986820754318</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.977168805985946</v>
-      </c>
-      <c r="H5">
-        <v>0.977168805985946</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.809930450773398</v>
-      </c>
-      <c r="N5">
-        <v>0.809930450773398</v>
-      </c>
-      <c r="O5">
-        <v>0.07266875540654688</v>
-      </c>
-      <c r="P5">
-        <v>0.07266875540654688</v>
-      </c>
-      <c r="Q5">
-        <v>0.7914387715139003</v>
-      </c>
-      <c r="R5">
-        <v>0.7914387715139003</v>
-      </c>
-      <c r="S5">
-        <v>0.07266875540654688</v>
-      </c>
-      <c r="T5">
-        <v>0.07266875540654688</v>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>1.307603</v>
+      </c>
+      <c r="H16">
+        <v>3.922809</v>
+      </c>
+      <c r="I16">
+        <v>0.4980403386610671</v>
+      </c>
+      <c r="J16">
+        <v>0.5973670409110512</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.2788403333333334</v>
+      </c>
+      <c r="N16">
+        <v>0.8365210000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.02366410532613305</v>
+      </c>
+      <c r="P16">
+        <v>0.03019397181747735</v>
+      </c>
+      <c r="Q16">
+        <v>0.3646124563876667</v>
+      </c>
+      <c r="R16">
+        <v>3.281512107489</v>
+      </c>
+      <c r="S16">
+        <v>0.01178567903073846</v>
+      </c>
+      <c r="T16">
+        <v>0.01803688359795812</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>1.307603</v>
+      </c>
+      <c r="H17">
+        <v>3.922809</v>
+      </c>
+      <c r="I17">
+        <v>0.4980403386610671</v>
+      </c>
+      <c r="J17">
+        <v>0.5973670409110512</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.05413033333333334</v>
+      </c>
+      <c r="N17">
+        <v>0.162391</v>
+      </c>
+      <c r="O17">
+        <v>0.004593832943842499</v>
+      </c>
+      <c r="P17">
+        <v>0.005861453899438226</v>
+      </c>
+      <c r="Q17">
+        <v>0.07078098625766667</v>
+      </c>
+      <c r="R17">
+        <v>0.6370288763190001</v>
+      </c>
+      <c r="S17">
+        <v>0.002287914115103685</v>
+      </c>
+      <c r="T17">
+        <v>0.003501439371343955</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>1.307603</v>
+      </c>
+      <c r="H18">
+        <v>3.922809</v>
+      </c>
+      <c r="I18">
+        <v>0.4980403386610671</v>
+      </c>
+      <c r="J18">
+        <v>0.5973670409110512</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.949111</v>
+      </c>
+      <c r="N18">
+        <v>8.847333000000001</v>
+      </c>
+      <c r="O18">
+        <v>0.2502796940750712</v>
+      </c>
+      <c r="P18">
+        <v>0.319341801654516</v>
+      </c>
+      <c r="Q18">
+        <v>3.856266390933</v>
+      </c>
+      <c r="R18">
+        <v>34.706397518397</v>
+      </c>
+      <c r="S18">
+        <v>0.1246493835971367</v>
+      </c>
+      <c r="T18">
+        <v>0.190764267093562</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>1.307603</v>
+      </c>
+      <c r="H19">
+        <v>3.922809</v>
+      </c>
+      <c r="I19">
+        <v>0.4980403386610671</v>
+      </c>
+      <c r="J19">
+        <v>0.5973670409110512</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.8102765000000001</v>
+      </c>
+      <c r="N19">
+        <v>1.620553</v>
+      </c>
+      <c r="O19">
+        <v>0.06876504632623846</v>
+      </c>
+      <c r="P19">
+        <v>0.05849336909740267</v>
+      </c>
+      <c r="Q19">
+        <v>1.0595199822295</v>
+      </c>
+      <c r="R19">
+        <v>6.357119893377001</v>
+      </c>
+      <c r="S19">
+        <v>0.03424776696036377</v>
+      </c>
+      <c r="T19">
+        <v>0.03494201081063335</v>
       </c>
     </row>
   </sheetData>
